--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3933.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3933.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.414485888015098</v>
+        <v>0.5382891893386841</v>
       </c>
       <c r="B1">
-        <v>2.314829090157061</v>
+        <v>0.7993694543838501</v>
       </c>
       <c r="C1">
-        <v>6.260652500286517</v>
+        <v>5.069862365722656</v>
       </c>
       <c r="D1">
-        <v>3.968306038020198</v>
+        <v>2.19356894493103</v>
       </c>
       <c r="E1">
-        <v>1.177066863013685</v>
+        <v>1.184125065803528</v>
       </c>
     </row>
   </sheetData>
